--- a/app/templates/ecrf_template.xlsx
+++ b/app/templates/ecrf_template.xlsx
@@ -685,12 +685,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -718,13 +724,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -744,37 +750,37 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -794,6 +800,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
@@ -7841,39 +7848,19 @@
       <c r="E66" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="F66" t="s" s="3">
-        <v>116</v>
-      </c>
+      <c r="F66" s="3"/>
       <c r="G66" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="H66" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="I66" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="J66" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="K66" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="L66" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="M66" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="N66" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="O66" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="P66" t="s" s="3">
-        <v>126</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -7882,18 +7869,10 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-      <c r="Y66" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="Z66" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="AA66" t="s" s="3">
-        <v>129</v>
-      </c>
-      <c r="AB66" t="s" s="3">
-        <v>130</v>
-      </c>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
@@ -7914,39 +7893,19 @@
       <c r="E67" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="F67" t="s" s="3">
-        <v>116</v>
-      </c>
+      <c r="F67" s="3"/>
       <c r="G67" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="H67" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="I67" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="J67" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="K67" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="L67" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="M67" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="N67" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="O67" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="P67" t="s" s="3">
-        <v>126</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
@@ -7955,18 +7914,10 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
-      <c r="Y67" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="Z67" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="AA67" t="s" s="3">
-        <v>129</v>
-      </c>
-      <c r="AB67" t="s" s="3">
-        <v>130</v>
-      </c>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
       <c r="AC67" s="2"/>
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
@@ -7987,39 +7938,19 @@
       <c r="E68" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="F68" t="s" s="3">
-        <v>116</v>
-      </c>
+      <c r="F68" s="3"/>
       <c r="G68" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="H68" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="I68" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="J68" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="K68" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="L68" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="M68" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="N68" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="O68" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="P68" t="s" s="3">
-        <v>126</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
@@ -8028,18 +7959,10 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="Z68" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="AA68" t="s" s="3">
-        <v>129</v>
-      </c>
-      <c r="AB68" t="s" s="3">
-        <v>130</v>
-      </c>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>

--- a/app/templates/ecrf_template.xlsx
+++ b/app/templates/ecrf_template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>Type</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>{{emission_n2o}}</t>
+  </si>
+  <si>
+    <t>{{emission_factor_description}}</t>
+  </si>
+  <si>
+    <t>{{emission_factor_source}}</t>
   </si>
   <si>
     <t>{{ghg_co2}}</t>
@@ -3100,20 +3106,24 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W2" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z2" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB2" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="12"/>
@@ -3126,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s" s="3">
         <v>113</v>
@@ -3135,7 +3145,7 @@
         <v>114</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s" s="3">
         <v>116</v>
@@ -3175,20 +3185,24 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="V3" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W3" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X3" s="2"/>
       <c r="Y3" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z3" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA3" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB3" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="12"/>
@@ -3201,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s" s="3">
         <v>113</v>
@@ -3210,7 +3224,7 @@
         <v>114</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s" s="3">
         <v>116</v>
@@ -3250,20 +3264,24 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="V4" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W4" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z4" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA4" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB4" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="12"/>
@@ -3276,13 +3294,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s" s="3">
         <v>115</v>
@@ -3325,20 +3343,24 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="V5" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W5" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z5" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA5" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB5" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="12"/>
@@ -3351,13 +3373,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s" s="3">
         <v>115</v>
@@ -3400,20 +3422,24 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
+      <c r="V6" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W6" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z6" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB6" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="12"/>
@@ -3426,16 +3452,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s" s="3">
         <v>116</v>
@@ -3475,20 +3501,24 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
+      <c r="V7" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W7" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z7" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB7" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="12"/>
@@ -3501,16 +3531,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s" s="3">
         <v>116</v>
@@ -3550,20 +3580,24 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="V8" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W8" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X8" s="2"/>
       <c r="Y8" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z8" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB8" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="12"/>
@@ -3576,16 +3610,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D9" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s" s="3">
         <v>136</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>134</v>
       </c>
       <c r="F9" t="s" s="3">
         <v>116</v>
@@ -3625,20 +3659,24 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="V9" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W9" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z9" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB9" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="12"/>
@@ -3651,16 +3689,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D10" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s" s="3">
         <v>136</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>134</v>
       </c>
       <c r="F10" t="s" s="3">
         <v>116</v>
@@ -3700,20 +3738,24 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="V10" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W10" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z10" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA10" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB10" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="12"/>
@@ -3726,13 +3768,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s" s="3">
         <v>115</v>
@@ -3775,20 +3817,24 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="V11" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W11" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z11" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA11" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB11" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="12"/>
@@ -3801,16 +3847,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s" s="3">
         <v>116</v>
@@ -3850,20 +3896,24 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="V12" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W12" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z12" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB12" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="12"/>
@@ -3876,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s" s="3">
         <v>116</v>
@@ -3925,20 +3975,24 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="V13" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W13" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB13" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="12"/>
@@ -3951,13 +4005,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s" s="3">
         <v>115</v>
@@ -4000,20 +4054,24 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="V14" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W14" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z14" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA14" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB14" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="12"/>
@@ -4026,13 +4084,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s" s="3">
         <v>115</v>
@@ -4075,20 +4133,24 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="V15" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W15" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z15" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA15" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB15" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="12"/>
@@ -4101,16 +4163,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s" s="3">
         <v>116</v>
@@ -4150,20 +4212,24 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="V16" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W16" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z16" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB16" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="12"/>
@@ -4176,16 +4242,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s" s="3">
         <v>116</v>
@@ -4225,20 +4291,24 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="V17" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W17" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z17" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB17" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="12"/>
@@ -4251,16 +4321,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s" s="3">
         <v>116</v>
@@ -4300,20 +4370,24 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="V18" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W18" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z18" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB18" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="12"/>
@@ -4326,16 +4400,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s" s="3">
         <v>116</v>
@@ -4375,20 +4449,24 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="V19" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W19" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z19" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA19" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB19" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="12"/>
@@ -4401,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s" s="3">
         <v>115</v>
@@ -4450,20 +4528,24 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="V20" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W20" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z20" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA20" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB20" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="12"/>
@@ -4476,16 +4558,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s" s="3">
         <v>116</v>
@@ -4525,20 +4607,24 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="V21" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W21" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z21" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA21" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB21" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="12"/>
@@ -4551,16 +4637,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s" s="3">
         <v>116</v>
@@ -4600,20 +4686,24 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="V22" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W22" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z22" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA22" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB22" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="12"/>
@@ -4626,13 +4716,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s" s="3">
         <v>115</v>
@@ -4675,20 +4765,24 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="V23" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W23" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z23" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA23" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB23" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="12"/>
@@ -4701,13 +4795,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s" s="3">
         <v>113</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s" s="3">
         <v>115</v>
@@ -4750,20 +4844,24 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
+      <c r="V24" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W24" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z24" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA24" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB24" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="12"/>
@@ -4780,10 +4878,10 @@
         <v>113</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s" s="3">
         <v>116</v>
@@ -4823,20 +4921,24 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="V25" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W25" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z25" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA25" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB25" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="12"/>
@@ -4849,13 +4951,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s" s="3">
         <v>115</v>
@@ -4898,20 +5000,24 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="V26" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W26" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z26" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA26" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB26" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="12"/>
@@ -4924,16 +5030,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>158</v>
-      </c>
       <c r="D27" t="s" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s" s="3">
         <v>116</v>
@@ -4973,20 +5079,24 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="V27" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W27" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z27" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA27" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB27" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="12"/>
@@ -4999,16 +5109,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="C28" t="s" s="3">
-        <v>158</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>159</v>
-      </c>
       <c r="E28" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s" s="3">
         <v>116</v>
@@ -5048,20 +5158,24 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="V28" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W28" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z28" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA28" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB28" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="12"/>
@@ -5074,13 +5188,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s" s="3">
         <v>115</v>
@@ -5123,20 +5237,24 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="V29" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W29" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z29" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA29" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB29" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="12"/>
@@ -5149,16 +5267,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s" s="3">
         <v>116</v>
@@ -5198,20 +5316,24 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
+      <c r="V30" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W30" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z30" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB30" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="12"/>
@@ -5224,16 +5346,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s" s="3">
+        <v>167</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s" s="3">
         <v>165</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>158</v>
-      </c>
-      <c r="D31" t="s" s="3">
-        <v>163</v>
-      </c>
       <c r="E31" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s" s="3">
         <v>116</v>
@@ -5273,20 +5395,24 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
+      <c r="V31" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W31" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z31" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA31" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB31" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="12"/>
@@ -5299,13 +5425,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s" s="3">
         <v>115</v>
@@ -5348,20 +5474,24 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
+      <c r="V32" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W32" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X32" s="2"/>
       <c r="Y32" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z32" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA32" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB32" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="12"/>
@@ -5374,16 +5504,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s" s="3">
         <v>116</v>
@@ -5423,20 +5553,24 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
+      <c r="V33" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W33" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z33" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA33" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB33" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="12"/>
@@ -5449,16 +5583,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s" s="3">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="C34" t="s" s="3">
-        <v>158</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>167</v>
-      </c>
       <c r="E34" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s" s="3">
         <v>116</v>
@@ -5498,20 +5632,24 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
+      <c r="V34" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W34" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z34" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA34" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB34" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="12"/>
@@ -5524,13 +5662,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s" s="3">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s" s="3">
         <v>115</v>
@@ -5573,20 +5711,24 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
+      <c r="V35" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W35" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z35" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA35" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB35" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="12"/>
@@ -5599,16 +5741,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s" s="3">
         <v>116</v>
@@ -5648,20 +5790,24 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
+      <c r="V36" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W36" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z36" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA36" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB36" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="12"/>
@@ -5674,16 +5820,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="C37" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s" s="3">
         <v>173</v>
       </c>
-      <c r="C37" t="s" s="3">
-        <v>158</v>
-      </c>
-      <c r="D37" t="s" s="3">
-        <v>171</v>
-      </c>
       <c r="E37" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s" s="3">
         <v>116</v>
@@ -5723,20 +5869,24 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
+      <c r="V37" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W37" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z37" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA37" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB37" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="12"/>
@@ -5749,13 +5899,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s" s="3">
         <v>115</v>
@@ -5798,20 +5948,24 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
+      <c r="V38" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W38" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z38" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA38" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB38" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="12"/>
@@ -5824,16 +5978,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s" s="3">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s" s="3">
         <v>116</v>
@@ -5873,20 +6027,24 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
+      <c r="V39" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W39" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z39" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA39" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB39" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="12"/>
@@ -5899,16 +6057,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s" s="3">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s" s="3">
         <v>177</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>158</v>
-      </c>
-      <c r="D40" t="s" s="3">
-        <v>175</v>
-      </c>
       <c r="E40" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s" s="3">
         <v>116</v>
@@ -5948,20 +6106,24 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
+      <c r="V40" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W40" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z40" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA40" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB40" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="12"/>
@@ -5974,13 +6136,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s" s="3">
         <v>115</v>
@@ -6023,20 +6185,24 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
+      <c r="V41" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W41" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z41" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA41" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB41" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="12"/>
@@ -6049,13 +6215,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s" s="3">
         <v>181</v>
       </c>
-      <c r="C42" t="s" s="3">
-        <v>179</v>
-      </c>
       <c r="D42" t="s" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s" s="3">
         <v>115</v>
@@ -6098,20 +6264,24 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
+      <c r="V42" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W42" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z42" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA42" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB42" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="12"/>
@@ -6124,16 +6294,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="C43" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="D43" t="s" s="3">
-        <v>180</v>
-      </c>
       <c r="E43" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F43" t="s" s="3">
         <v>116</v>
@@ -6173,20 +6343,24 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
+      <c r="V43" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W43" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z43" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA43" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB43" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="12"/>
@@ -6199,13 +6373,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s" s="3">
         <v>115</v>
@@ -6248,20 +6422,24 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
+      <c r="V44" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W44" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z44" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA44" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB44" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="12"/>
@@ -6274,13 +6452,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s" s="3">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s" s="3">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s" s="3">
         <v>115</v>
@@ -6323,20 +6501,24 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
+      <c r="V45" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W45" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z45" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA45" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB45" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="12"/>
@@ -6349,16 +6531,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="s" s="3">
+        <v>188</v>
+      </c>
+      <c r="C46" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s" s="3">
         <v>186</v>
       </c>
-      <c r="C46" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="D46" t="s" s="3">
-        <v>184</v>
-      </c>
       <c r="E46" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s" s="3">
         <v>116</v>
@@ -6398,20 +6580,24 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
+      <c r="V46" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W46" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z46" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA46" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB46" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" s="12"/>
@@ -6424,13 +6610,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s" s="3">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s" s="3">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s" s="3">
         <v>115</v>
@@ -6473,20 +6659,24 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
+      <c r="V47" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W47" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z47" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA47" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB47" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="12"/>
@@ -6499,13 +6689,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s" s="3">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s" s="3">
         <v>115</v>
@@ -6548,20 +6738,24 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
+      <c r="V48" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W48" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z48" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA48" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB48" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="12"/>
@@ -6574,16 +6768,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="D49" t="s" s="3">
         <v>190</v>
       </c>
-      <c r="C49" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="D49" t="s" s="3">
-        <v>188</v>
-      </c>
       <c r="E49" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s" s="3">
         <v>116</v>
@@ -6623,20 +6817,24 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+      <c r="V49" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W49" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z49" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA49" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB49" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="12"/>
@@ -6649,13 +6847,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s" s="3">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s" s="3">
         <v>115</v>
@@ -6698,20 +6896,24 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="V50" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W50" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X50" s="2"/>
       <c r="Y50" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z50" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA50" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB50" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="12"/>
@@ -6724,13 +6926,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="s" s="3">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s" s="3">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s" s="3">
         <v>115</v>
@@ -6773,20 +6975,24 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
+      <c r="V51" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W51" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X51" s="2"/>
       <c r="Y51" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z51" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA51" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB51" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="12"/>
@@ -6799,16 +7005,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s" s="3">
+        <v>196</v>
+      </c>
+      <c r="C52" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="D52" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="C52" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="D52" t="s" s="3">
-        <v>192</v>
-      </c>
       <c r="E52" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s" s="3">
         <v>116</v>
@@ -6848,20 +7054,24 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
+      <c r="V52" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W52" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z52" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA52" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB52" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="12"/>
@@ -6874,13 +7084,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s" s="3">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E53" t="s" s="3">
         <v>115</v>
@@ -6923,20 +7133,24 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
+      <c r="V53" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W53" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z53" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA53" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB53" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="12"/>
@@ -6950,13 +7164,13 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="3">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s" s="3">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s" s="3">
         <v>116</v>
@@ -6996,20 +7210,24 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
+      <c r="V54" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W54" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z54" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA54" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB54" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="12"/>
@@ -7022,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="B55" t="s" s="3">
+        <v>200</v>
+      </c>
+      <c r="C55" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="C55" t="s" s="3">
-        <v>196</v>
-      </c>
       <c r="D55" t="s" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E55" t="s" s="3">
         <v>115</v>
@@ -7071,20 +7289,24 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
+      <c r="V55" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W55" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z55" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA55" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB55" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="12"/>
@@ -7098,13 +7320,13 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="3">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D56" t="s" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F56" t="s" s="3">
         <v>116</v>
@@ -7144,20 +7366,24 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
+      <c r="V56" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W56" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z56" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA56" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB56" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="12"/>
@@ -7170,13 +7396,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s" s="3">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s" s="3">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E57" t="s" s="3">
         <v>115</v>
@@ -7219,20 +7445,24 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
+      <c r="V57" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W57" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z57" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA57" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB57" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="12"/>
@@ -7246,13 +7476,13 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D58" t="s" s="3">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E58" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F58" t="s" s="3">
         <v>116</v>
@@ -7292,20 +7522,24 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
+      <c r="V58" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W58" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z58" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA58" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB58" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="12"/>
@@ -7318,13 +7552,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s" s="3">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>201</v>
-      </c>
       <c r="D59" t="s" s="3">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E59" t="s" s="3">
         <v>115</v>
@@ -7367,20 +7601,24 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
+      <c r="V59" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W59" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z59" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA59" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB59" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="12"/>
@@ -7394,13 +7632,13 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s" s="3">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E60" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F60" t="s" s="3">
         <v>116</v>
@@ -7440,20 +7678,24 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
+      <c r="V60" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W60" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z60" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA60" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB60" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="12"/>
@@ -7466,13 +7708,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s" s="3">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D61" t="s" s="3">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E61" t="s" s="3">
         <v>115</v>
@@ -7515,20 +7757,24 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
+      <c r="V61" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W61" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z61" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA61" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB61" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="12"/>
@@ -7542,13 +7788,13 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s" s="3">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s" s="3">
         <v>116</v>
@@ -7588,20 +7834,24 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
+      <c r="V62" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W62" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z62" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA62" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB62" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="12"/>
@@ -7614,13 +7864,13 @@
         <v>1</v>
       </c>
       <c r="B63" t="s" s="3">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E63" t="s" s="3">
         <v>115</v>
@@ -7663,20 +7913,24 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
+      <c r="V63" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W63" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z63" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA63" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB63" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="12"/>
@@ -7689,13 +7943,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s" s="3">
         <v>115</v>
@@ -7738,20 +7992,24 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
+      <c r="V64" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W64" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z64" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA64" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB64" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="12"/>
@@ -7764,13 +8022,13 @@
         <v>1</v>
       </c>
       <c r="B65" t="s" s="3">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s" s="3">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E65" t="s" s="3">
         <v>115</v>
@@ -7813,20 +8071,24 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
+      <c r="V65" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="W65" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="X65" s="2"/>
       <c r="Y65" t="s" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z65" t="s" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA65" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB65" t="s" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="12"/>
@@ -7840,13 +8102,13 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D66" t="s" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" t="s" s="3">
@@ -7885,13 +8147,13 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E67" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" t="s" s="3">
@@ -7930,13 +8192,13 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s" s="3">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" t="s" s="3">
@@ -7975,13 +8237,13 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s" s="3">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" t="s" s="3">
@@ -8020,10 +8282,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s" s="3">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E70" t="s" s="3">
         <v>115</v>
@@ -8064,16 +8326,16 @@
         <v>1</v>
       </c>
       <c r="B71" t="s" s="3">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s" s="3">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E71" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" t="s" s="3">

--- a/app/templates/ecrf_template.xlsx
+++ b/app/templates/ecrf_template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>Type</t>
   </si>
@@ -181,88 +181,16 @@
     <t>Stationary energy &gt; Residential buildings</t>
   </si>
   <si>
-    <t>{{I.1.1-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.1.1-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.1.2-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.1.2-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.1.3-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.1.3-no_key}}</t>
-  </si>
-  <si>
     <t>Stationary energy &gt; Commercial buildings &amp; facilities</t>
   </si>
   <si>
-    <t>{{I.2.1-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.2.1-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.2.2-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.2.2-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.2.3-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.2.3-no_key}}</t>
-  </si>
-  <si>
     <t>Stationary energy &gt; Institutional buildings &amp; facilities</t>
   </si>
   <si>
     <t>Stationary energy &gt; Industrial buildings &amp; facilities</t>
   </si>
   <si>
-    <t>{{I.3.1-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.3.1-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.3.2-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.3.2-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.3.3-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.3.3-no_key}}</t>
-  </si>
-  <si>
     <t>Stationary energy &gt; Agriculture</t>
-  </si>
-  <si>
-    <t>{{I.5.1-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.5.1-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.5.2-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.5.2-no_key}}</t>
-  </si>
-  <si>
-    <t>{{I.5.3-emissions}}</t>
-  </si>
-  <si>
-    <t>{{I.5.3-no_key}}</t>
   </si>
   <si>
     <t>Stationary energy &gt; Fugitive emissions</t>
@@ -2460,53 +2388,29 @@
       <c r="A4" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>60</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s" s="3">
-        <v>67</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2518,55 +2422,31 @@
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>75</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="14" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>82</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="3"/>
@@ -2578,7 +2458,7 @@
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="3"/>
@@ -2590,7 +2470,7 @@
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="3"/>
@@ -2602,7 +2482,7 @@
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="3"/>
@@ -2614,7 +2494,7 @@
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="3"/>
@@ -2626,7 +2506,7 @@
     </row>
     <row r="14" ht="14" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="3"/>
@@ -2638,7 +2518,7 @@
     </row>
     <row r="15" ht="14" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="3"/>
@@ -2650,7 +2530,7 @@
     </row>
     <row r="16" ht="14" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="3"/>
@@ -2662,7 +2542,7 @@
     </row>
     <row r="17" ht="14" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="3"/>
@@ -2674,7 +2554,7 @@
     </row>
     <row r="18" ht="14" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="3"/>
@@ -2686,7 +2566,7 @@
     </row>
     <row r="19" ht="14" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="3"/>
@@ -2698,7 +2578,7 @@
     </row>
     <row r="20" ht="14" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="3"/>
@@ -2710,7 +2590,7 @@
     </row>
     <row r="21" ht="14" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="3"/>
@@ -2722,7 +2602,7 @@
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="3"/>
@@ -2734,7 +2614,7 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="3"/>
@@ -2746,7 +2626,7 @@
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
@@ -2758,7 +2638,7 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="3"/>
@@ -2770,7 +2650,7 @@
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="3"/>
@@ -2782,7 +2662,7 @@
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="3"/>
@@ -2794,7 +2674,7 @@
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="3"/>
@@ -2806,7 +2686,7 @@
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="3"/>
@@ -2818,7 +2698,7 @@
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="3"/>
@@ -2830,7 +2710,7 @@
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="3"/>
@@ -2842,7 +2722,7 @@
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="3"/>
@@ -2854,7 +2734,7 @@
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="3"/>
@@ -2866,7 +2746,7 @@
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="3"/>
@@ -2940,100 +2820,100 @@
         <v>11</v>
       </c>
       <c r="B1" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="S1" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="U1" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="V1" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="W1" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="Y1" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="Z1" t="s" s="3">
         <v>109</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="AA1" t="s" s="3">
         <v>110</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="AB1" t="s" s="3">
         <v>111</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="AC1" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="AD1" t="s" s="3">
         <v>113</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="AE1" t="s" s="3">
         <v>114</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="AF1" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="AG1" t="s" s="3">
         <v>116</v>
-      </c>
-      <c r="J1" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="K1" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="L1" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="M1" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="P1" t="s" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q1" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="R1" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="S1" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="T1" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="U1" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="V1" t="s" s="3">
-        <v>129</v>
-      </c>
-      <c r="W1" t="s" s="3">
-        <v>130</v>
-      </c>
-      <c r="X1" t="s" s="3">
-        <v>131</v>
-      </c>
-      <c r="Y1" t="s" s="3">
-        <v>132</v>
-      </c>
-      <c r="Z1" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="AA1" t="s" s="3">
-        <v>134</v>
-      </c>
-      <c r="AB1" t="s" s="3">
-        <v>135</v>
-      </c>
-      <c r="AC1" t="s" s="3">
-        <v>136</v>
-      </c>
-      <c r="AD1" t="s" s="3">
-        <v>137</v>
-      </c>
-      <c r="AE1" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="AF1" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="AG1" t="s" s="3">
-        <v>140</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
@@ -3041,49 +2921,49 @@
         <v>45</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N2" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O2" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -3091,23 +2971,23 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W2" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z2" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA2" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB2" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="12"/>
@@ -3120,49 +3000,49 @@
         <v>45</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N3" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O3" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P3" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -3170,23 +3050,23 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W3" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z3" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA3" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB3" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="12"/>
@@ -3199,49 +3079,49 @@
         <v>45</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M4" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N4" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O4" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P4" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -3249,23 +3129,23 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W4" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z4" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA4" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB4" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="12"/>
@@ -3278,49 +3158,49 @@
         <v>45</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L5" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M5" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N5" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O5" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P5" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3328,23 +3208,23 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W5" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z5" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA5" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB5" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="12"/>
@@ -3357,49 +3237,49 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M6" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O6" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P6" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -3407,23 +3287,23 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W6" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z6" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA6" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB6" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="12"/>
@@ -3436,49 +3316,49 @@
         <v>45</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O7" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P7" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -3486,23 +3366,23 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W7" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z7" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA7" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB7" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="12"/>
@@ -3515,49 +3395,49 @@
         <v>45</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O8" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P8" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -3565,23 +3445,23 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W8" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z8" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA8" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB8" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="12"/>
@@ -3594,49 +3474,49 @@
         <v>45</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N9" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O9" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P9" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -3644,23 +3524,23 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W9" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z9" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA9" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB9" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="12"/>
@@ -3673,49 +3553,49 @@
         <v>45</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -3723,23 +3603,23 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W10" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z10" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA10" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB10" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="12"/>
@@ -3752,49 +3632,49 @@
         <v>45</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N11" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -3802,23 +3682,23 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W11" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z11" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA11" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB11" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="12"/>
@@ -3831,49 +3711,49 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I12" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -3881,23 +3761,23 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W12" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="12"/>
@@ -3910,49 +3790,49 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -3960,23 +3840,23 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W13" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z13" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA13" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB13" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="12"/>
@@ -3989,49 +3869,49 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N14" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P14" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -4039,23 +3919,23 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W14" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA14" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB14" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="12"/>
@@ -4068,49 +3948,49 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I15" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N15" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P15" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -4118,23 +3998,23 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W15" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z15" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA15" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB15" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="12"/>
@@ -4147,49 +4027,49 @@
         <v>45</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N16" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P16" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -4197,23 +4077,23 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W16" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z16" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA16" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB16" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="12"/>
@@ -4226,49 +4106,49 @@
         <v>45</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H17" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M17" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N17" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P17" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4276,23 +4156,23 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W17" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z17" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA17" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB17" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="12"/>
@@ -4305,49 +4185,49 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M18" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N18" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P18" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -4355,23 +4235,23 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W18" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z18" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA18" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB18" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="12"/>
@@ -4384,49 +4264,49 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F19" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J19" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M19" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N19" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P19" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -4434,23 +4314,23 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W19" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z19" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA19" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB19" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="12"/>
@@ -4463,49 +4343,49 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N20" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P20" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -4513,23 +4393,23 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W20" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z20" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA20" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB20" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="12"/>
@@ -4542,49 +4422,49 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N21" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P21" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -4592,23 +4472,23 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W21" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z21" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA21" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB21" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="12"/>
@@ -4621,49 +4501,49 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J22" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M22" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N22" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P22" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4671,23 +4551,23 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W22" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z22" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA22" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB22" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="12"/>
@@ -4700,49 +4580,49 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I23" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M23" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N23" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P23" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -4750,23 +4630,23 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W23" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z23" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA23" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB23" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="12"/>
@@ -4779,49 +4659,49 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N24" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P24" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -4829,23 +4709,23 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W24" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z24" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA24" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="12"/>
@@ -4859,46 +4739,46 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="3">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N25" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O25" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P25" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -4906,23 +4786,23 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W25" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z25" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA25" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB25" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="12"/>
@@ -4935,49 +4815,49 @@
         <v>45</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M26" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N26" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P26" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -4985,23 +4865,23 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W26" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z26" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA26" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB26" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="12"/>
@@ -5014,49 +4894,49 @@
         <v>45</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H27" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J27" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M27" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N27" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P27" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -5064,23 +4944,23 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W27" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z27" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA27" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB27" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="12"/>
@@ -5093,49 +4973,49 @@
         <v>45</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I28" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J28" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L28" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M28" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N28" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O28" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P28" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -5143,23 +5023,23 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W28" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z28" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA28" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="12"/>
@@ -5172,49 +5052,49 @@
         <v>45</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H29" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I29" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K29" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L29" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M29" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N29" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O29" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P29" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -5222,23 +5102,23 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W29" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z29" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA29" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="12"/>
@@ -5251,49 +5131,49 @@
         <v>45</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I30" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K30" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N30" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O30" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P30" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -5301,23 +5181,23 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W30" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z30" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA30" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="12"/>
@@ -5330,49 +5210,49 @@
         <v>45</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J31" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M31" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N31" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O31" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P31" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -5380,23 +5260,23 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W31" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z31" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA31" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="12"/>
@@ -5409,49 +5289,49 @@
         <v>45</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H32" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M32" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N32" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O32" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P32" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -5459,23 +5339,23 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W32" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z32" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA32" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB32" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="12"/>
@@ -5488,49 +5368,49 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H33" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M33" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N33" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O33" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P33" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -5538,23 +5418,23 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W33" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z33" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA33" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB33" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="12"/>
@@ -5567,49 +5447,49 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I34" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J34" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K34" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M34" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N34" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O34" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P34" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -5617,23 +5497,23 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W34" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z34" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA34" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB34" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="12"/>
@@ -5646,49 +5526,49 @@
         <v>45</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s" s="3">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M35" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N35" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O35" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P35" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5696,23 +5576,23 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W35" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z35" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA35" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB35" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="12"/>
@@ -5725,49 +5605,49 @@
         <v>45</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I36" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M36" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N36" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P36" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -5775,23 +5655,23 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W36" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z36" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA36" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB36" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="12"/>
@@ -5804,49 +5684,49 @@
         <v>45</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s" s="3">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H37" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I37" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J37" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M37" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N37" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O37" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P37" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5854,23 +5734,23 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W37" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z37" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA37" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB37" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="12"/>
@@ -5883,49 +5763,49 @@
         <v>45</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H38" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I38" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M38" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N38" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O38" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P38" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -5933,23 +5813,23 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W38" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z38" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA38" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB38" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="12"/>
@@ -5962,49 +5842,49 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="3">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H39" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I39" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K39" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L39" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M39" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N39" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O39" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P39" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -6012,23 +5892,23 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W39" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z39" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA39" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB39" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="12"/>
@@ -6041,49 +5921,49 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="3">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s" s="3">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H40" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I40" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K40" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M40" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N40" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O40" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P40" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -6091,23 +5971,23 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W40" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z40" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA40" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB40" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="12"/>
@@ -6120,49 +6000,49 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G41" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I41" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K41" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L41" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M41" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N41" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O41" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P41" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -6170,23 +6050,23 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W41" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z41" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA41" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB41" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="12"/>
@@ -6199,49 +6079,49 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s" s="3">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I42" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J42" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L42" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M42" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N42" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O42" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P42" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -6249,23 +6129,23 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W42" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z42" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA42" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB42" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="12"/>
@@ -6278,49 +6158,49 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="3">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s" s="3">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G43" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I43" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K43" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L43" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M43" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N43" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O43" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P43" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -6328,23 +6208,23 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W43" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z43" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA43" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB43" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="12"/>
@@ -6357,49 +6237,49 @@
         <v>45</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s" s="3">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I44" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L44" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M44" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N44" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O44" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P44" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -6407,23 +6287,23 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W44" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z44" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA44" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="12"/>
@@ -6436,49 +6316,49 @@
         <v>45</v>
       </c>
       <c r="B45" t="s" s="3">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s" s="3">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I45" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J45" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L45" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M45" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N45" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O45" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P45" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -6486,23 +6366,23 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W45" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z45" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA45" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="12"/>
@@ -6515,49 +6395,49 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s" s="3">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F46" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I46" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J46" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L46" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M46" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N46" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O46" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P46" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -6565,23 +6445,23 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W46" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z46" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA46" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" s="12"/>
@@ -6594,49 +6474,49 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="3">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s" s="3">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H47" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I47" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K47" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L47" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M47" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N47" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O47" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P47" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -6644,23 +6524,23 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W47" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z47" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA47" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="12"/>
@@ -6673,49 +6553,49 @@
         <v>45</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s" s="3">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E48" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H48" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I48" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J48" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K48" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L48" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M48" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N48" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O48" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P48" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -6723,23 +6603,23 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W48" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z48" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA48" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="12"/>
@@ -6752,49 +6632,49 @@
         <v>45</v>
       </c>
       <c r="B49" t="s" s="3">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D49" t="s" s="3">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G49" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I49" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J49" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K49" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L49" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M49" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N49" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O49" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P49" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -6802,23 +6682,23 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W49" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z49" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA49" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="12"/>
@@ -6831,49 +6711,49 @@
         <v>45</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s" s="3">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H50" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I50" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J50" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L50" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M50" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N50" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O50" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P50" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -6881,23 +6761,23 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W50" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z50" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA50" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="12"/>
@@ -6910,49 +6790,49 @@
         <v>45</v>
       </c>
       <c r="B51" t="s" s="3">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s" s="3">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H51" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I51" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J51" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L51" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M51" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N51" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O51" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P51" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
@@ -6960,23 +6840,23 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W51" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z51" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA51" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB51" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="12"/>
@@ -6989,49 +6869,49 @@
         <v>45</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s" s="3">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G52" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H52" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I52" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J52" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L52" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M52" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N52" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O52" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P52" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -7039,23 +6919,23 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W52" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z52" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA52" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB52" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="12"/>
@@ -7068,49 +6948,49 @@
         <v>45</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s" s="3">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G53" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H53" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J53" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L53" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M53" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N53" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O53" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P53" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -7118,23 +6998,23 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W53" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z53" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA53" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB53" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="12"/>
@@ -7148,46 +7028,46 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="3">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s" s="3">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H54" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I54" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J54" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K54" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L54" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M54" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N54" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O54" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P54" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -7195,23 +7075,23 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W54" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z54" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA54" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB54" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="12"/>
@@ -7224,49 +7104,49 @@
         <v>45</v>
       </c>
       <c r="B55" t="s" s="3">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D55" t="s" s="3">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G55" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H55" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I55" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J55" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K55" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L55" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M55" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N55" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O55" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P55" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -7274,23 +7154,23 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W55" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z55" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA55" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB55" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="12"/>
@@ -7304,46 +7184,46 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="3">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D56" t="s" s="3">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H56" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I56" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J56" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K56" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L56" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M56" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N56" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O56" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P56" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -7351,23 +7231,23 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W56" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z56" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA56" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB56" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="12"/>
@@ -7380,49 +7260,49 @@
         <v>45</v>
       </c>
       <c r="B57" t="s" s="3">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s" s="3">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G57" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H57" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I57" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J57" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K57" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M57" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N57" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O57" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P57" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -7430,23 +7310,23 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W57" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z57" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA57" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB57" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="12"/>
@@ -7460,46 +7340,46 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="3">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s" s="3">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G58" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H58" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I58" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J58" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L58" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M58" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N58" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O58" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P58" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -7507,23 +7387,23 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W58" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z58" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA58" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="12"/>
@@ -7536,49 +7416,49 @@
         <v>45</v>
       </c>
       <c r="B59" t="s" s="3">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s" s="3">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E59" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G59" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H59" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I59" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J59" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K59" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L59" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M59" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N59" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O59" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P59" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -7586,23 +7466,23 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W59" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z59" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA59" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="12"/>
@@ -7616,46 +7496,46 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="3">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s" s="3">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G60" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H60" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I60" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J60" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K60" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L60" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M60" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N60" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O60" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P60" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -7663,23 +7543,23 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W60" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z60" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA60" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB60" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="12"/>
@@ -7692,49 +7572,49 @@
         <v>45</v>
       </c>
       <c r="B61" t="s" s="3">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s" s="3">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H61" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I61" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J61" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K61" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M61" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N61" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O61" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P61" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -7742,23 +7622,23 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W61" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z61" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA61" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="12"/>
@@ -7772,46 +7652,46 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="3">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s" s="3">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F62" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H62" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I62" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J62" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L62" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M62" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N62" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O62" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P62" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -7819,23 +7699,23 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W62" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z62" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA62" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="12"/>
@@ -7848,49 +7728,49 @@
         <v>45</v>
       </c>
       <c r="B63" t="s" s="3">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s" s="3">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="E63" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G63" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H63" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I63" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J63" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L63" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M63" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N63" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O63" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P63" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
@@ -7898,23 +7778,23 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W63" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z63" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA63" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="12"/>
@@ -7927,49 +7807,49 @@
         <v>45</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s" s="3">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E64" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G64" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H64" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I64" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J64" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K64" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L64" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M64" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N64" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O64" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P64" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -7977,23 +7857,23 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W64" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z64" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA64" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="12"/>
@@ -8006,49 +7886,49 @@
         <v>45</v>
       </c>
       <c r="B65" t="s" s="3">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s" s="3">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s" s="3">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G65" t="s" s="3">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H65" t="s" s="3">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I65" t="s" s="3">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J65" t="s" s="3">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s" s="3">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L65" t="s" s="3">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M65" t="s" s="3">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N65" t="s" s="3">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O65" t="s" s="3">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P65" t="s" s="3">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -8056,23 +7936,23 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" t="s" s="3">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="W65" t="s" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" t="s" s="3">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="Z65" t="s" s="3">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AA65" t="s" s="3">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AB65" t="s" s="3">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="12"/>
@@ -8086,17 +7966,17 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s" s="3">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="E66" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" t="s" s="3">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -8131,17 +8011,17 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s" s="3">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E67" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" t="s" s="3">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -8176,17 +8056,17 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s" s="3">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" t="s" s="3">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -8221,17 +8101,17 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s" s="3">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E69" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" t="s" s="3">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -8266,17 +8146,17 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="3">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D70" t="s" s="3">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E70" t="s" s="3">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" t="s" s="3">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -8310,20 +8190,20 @@
         <v>45</v>
       </c>
       <c r="B71" t="s" s="3">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s" s="3">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E71" t="s" s="3">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" t="s" s="3">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>

--- a/app/templates/ecrf_template.xlsx
+++ b/app/templates/ecrf_template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
   <si>
     <t>Type</t>
   </si>
@@ -181,78 +181,387 @@
     <t>Stationary energy &gt; Residential buildings</t>
   </si>
   <si>
+    <t>{{I.1.1_total}}</t>
+  </si>
+  <si>
+    <t>{{I.1.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.1.2_total}}</t>
+  </si>
+  <si>
+    <t>{{I.1.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.1.3_total}}</t>
+  </si>
+  <si>
+    <t>{{I.1.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Stationary energy &gt; Commercial buildings &amp; facilities</t>
   </si>
   <si>
+    <t>{{I.2.1_total}}</t>
+  </si>
+  <si>
+    <t>{{I.2.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.2.2_total}}</t>
+  </si>
+  <si>
+    <t>{{I.2.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.2.3_total}}</t>
+  </si>
+  <si>
+    <t>{{I.2.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Stationary energy &gt; Institutional buildings &amp; facilities</t>
   </si>
   <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>{{explanation-institutional-missing}}</t>
+  </si>
+  <si>
     <t>Stationary energy &gt; Industrial buildings &amp; facilities</t>
   </si>
   <si>
+    <t>{{I.3.1_total}}</t>
+  </si>
+  <si>
+    <t>{{I.3.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.3.2_total}}</t>
+  </si>
+  <si>
+    <t>{{I.3.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.3.3_total}}</t>
+  </si>
+  <si>
+    <t>{{I.3.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Stationary energy &gt; Agriculture</t>
   </si>
   <si>
+    <t>{{I.5.1_total}}</t>
+  </si>
+  <si>
+    <t>{{I.5.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.5.2_total}}</t>
+  </si>
+  <si>
+    <t>{{I.5.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{I.5.3_total}}</t>
+  </si>
+  <si>
+    <t>{{I.5.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Stationary energy &gt; Fugitive emissions</t>
   </si>
   <si>
+    <t>{{fugitive_total}}</t>
+  </si>
+  <si>
+    <t>{{fugitive_notation}}</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>{{fugitive_explanation}}</t>
+  </si>
+  <si>
     <t>Total Stationary Energy</t>
   </si>
   <si>
+    <t>{{stationary1_full-total}}</t>
+  </si>
+  <si>
+    <t>{{stationary2_full-total}}</t>
+  </si>
+  <si>
+    <t>{{stationary3_full-total}}</t>
+  </si>
+  <si>
     <t>Transportation &gt; On-road</t>
   </si>
   <si>
+    <t>{{II.1.1_total}}</t>
+  </si>
+  <si>
+    <t>{{II.1.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.1.2_total}}</t>
+  </si>
+  <si>
+    <t>{{II.1.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.1.3_total}}</t>
+  </si>
+  <si>
+    <t>{{II.1.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Transportation &gt; Rail</t>
   </si>
   <si>
+    <t>{{II.2.1_total}}</t>
+  </si>
+  <si>
+    <t>{{II.2.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.2.2_total}}</t>
+  </si>
+  <si>
+    <t>{{II.2.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.2.3_total}}</t>
+  </si>
+  <si>
+    <t>{{II.2.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Transportation &gt; Waterborne navigation</t>
   </si>
   <si>
+    <t>{{II.3.1_total}}</t>
+  </si>
+  <si>
+    <t>{{II.3.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.3.2_total}}</t>
+  </si>
+  <si>
+    <t>{{II.3.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.3.3_total}}</t>
+  </si>
+  <si>
+    <t>{{II.3.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Transportation &gt; Aviation</t>
   </si>
   <si>
+    <t>{{II.4.1_total}}</t>
+  </si>
+  <si>
+    <t>{{II.4.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.4.2_total}}</t>
+  </si>
+  <si>
+    <t>{{II.4.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.4.3_total}}</t>
+  </si>
+  <si>
+    <t>{{II.4.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Transportation &gt; Off-road</t>
   </si>
   <si>
+    <t>{{II.5.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.5.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{II.5.3_total}}</t>
+  </si>
+  <si>
+    <t>{{II.5.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Total Transport</t>
   </si>
   <si>
+    <t>{{transport1_full-total}}</t>
+  </si>
+  <si>
+    <t>{{transport2_full-total}}</t>
+  </si>
+  <si>
+    <t>{{transport3_full-total}}</t>
+  </si>
+  <si>
     <t>Waste &gt; Solid waste disposal</t>
   </si>
   <si>
+    <t>{{|II.1.1_total}}</t>
+  </si>
+  <si>
+    <t>{{III.1.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.1.2_total}}</t>
+  </si>
+  <si>
+    <t>{{III.1.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.1.3_total}}</t>
+  </si>
+  <si>
+    <t>{{III.1.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Waste &gt; Biological treatment</t>
   </si>
   <si>
+    <t>{{III.2.1_total}}</t>
+  </si>
+  <si>
+    <t>{{III.2.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.2.2_total}}</t>
+  </si>
+  <si>
+    <t>{{III.2.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.2.3_total}}</t>
+  </si>
+  <si>
+    <t>{{III.2.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Waste &gt; Incineration and open burning</t>
   </si>
   <si>
+    <t>{{III.3.1_total}}</t>
+  </si>
+  <si>
+    <t>{{III.3.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.3.2_total}}</t>
+  </si>
+  <si>
+    <t>{{III.3.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.3.3_total}}</t>
+  </si>
+  <si>
+    <t>{{III.3.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Waste &gt; Wastewater</t>
   </si>
   <si>
+    <t>{{III.4.1_total}}</t>
+  </si>
+  <si>
+    <t>{{III.4.1_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.4.2_total}}</t>
+  </si>
+  <si>
+    <t>{{III.4.2_notation-key}}</t>
+  </si>
+  <si>
+    <t>{{III.4.3_total}}</t>
+  </si>
+  <si>
+    <t>{{III.4.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Total Waste</t>
   </si>
   <si>
+    <t>{{waste1_full-total}}</t>
+  </si>
+  <si>
+    <t>{{waste2_full-total}}</t>
+  </si>
+  <si>
+    <t>{{waste3_full-total}}</t>
+  </si>
+  <si>
     <t>IPPU &gt; Industrial process</t>
   </si>
   <si>
+    <t>{{|V.1_total}}</t>
+  </si>
+  <si>
+    <t>{{IV.1_notation-key}}</t>
+  </si>
+  <si>
     <t>IPPU &gt; Produce Use</t>
   </si>
   <si>
+    <t>{{IV.1_total}}</t>
+  </si>
+  <si>
+    <t>{{IV.2_notation-key}}</t>
+  </si>
+  <si>
     <t>Total IPPU</t>
   </si>
   <si>
+    <t>{{ippu_total}}</t>
+  </si>
+  <si>
     <t>AFOLU &gt; Livestock</t>
   </si>
   <si>
+    <t>{{V.1_total}}</t>
+  </si>
+  <si>
+    <t>{{V.1_notation-key}}</t>
+  </si>
+  <si>
     <t>AFOLU &gt; Land use</t>
   </si>
   <si>
+    <t>{{V.2_total}}</t>
+  </si>
+  <si>
+    <t>{{V.2_notation-key}}</t>
+  </si>
+  <si>
     <t>AFOLU &gt; Other AFOLU</t>
   </si>
   <si>
+    <t>{{V.3_total}}</t>
+  </si>
+  <si>
+    <t>{{V.3_notation-key}}</t>
+  </si>
+  <si>
     <t>Total AFOLU</t>
   </si>
   <si>
+    <t>{{afolu_full-total}}</t>
+  </si>
+  <si>
     <t>Generation of grid-supplied energy &gt; Electricity-only generation</t>
   </si>
   <si>
@@ -671,9 +980,6 @@
   </si>
   <si>
     <t>Heat/cold generation</t>
-  </si>
-  <si>
-    <t>NE</t>
   </si>
   <si>
     <t>Local renewable generation</t>
@@ -2388,247 +2694,457 @@
       <c r="A4" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>60</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>67</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="C6" t="s" s="3">
+        <v>69</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" t="s" s="3">
+        <v>69</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
+      <c r="G6" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s" s="3">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>77</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="14" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="3">
+        <v>84</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
+      <c r="G9" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s" s="3">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>91</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="10"/>
+      <c r="D10" t="s" s="3">
+        <v>92</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
+      <c r="F10" t="s" s="3">
+        <v>93</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>100</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s" s="3">
+        <v>107</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s" s="3">
+        <v>114</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" ht="14" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s" s="3">
+        <v>121</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" ht="14" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s" s="3">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s" s="3">
+        <v>126</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" ht="14" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="B16" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>128</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
+      <c r="D16" t="s" s="3">
+        <v>129</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
+      <c r="F16" t="s" s="3">
+        <v>130</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" ht="14" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>137</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" ht="14" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s" s="3">
+        <v>144</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" ht="14" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>149</v>
+      </c>
+      <c r="F19" t="s" s="3">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s" s="3">
+        <v>151</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" ht="14" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s" s="3">
+        <v>158</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" ht="14" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="B21" s="10"/>
+        <v>159</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>160</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10"/>
+      <c r="D21" t="s" s="3">
+        <v>161</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" t="s" s="3">
+        <v>162</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>165</v>
+      </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="2"/>
+      <c r="E22" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="3"/>
+      <c r="G22" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>168</v>
+      </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="2"/>
+      <c r="E23" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="3"/>
+      <c r="G23" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="B24" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>170</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
@@ -2638,45 +3154,71 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>173</v>
+      </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="2"/>
+      <c r="E25" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="3"/>
+      <c r="G25" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>176</v>
+      </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="2"/>
+      <c r="E26" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="3"/>
+      <c r="G26" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>179</v>
+      </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="2"/>
+      <c r="E27" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="3"/>
+      <c r="G27" t="s" s="3">
+        <v>88</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="B28" s="10"/>
+        <v>180</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>181</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10"/>
       <c r="E28" s="2"/>
@@ -2686,7 +3228,7 @@
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="3"/>
@@ -2698,7 +3240,7 @@
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="3"/>
@@ -2710,7 +3252,7 @@
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="3"/>
@@ -2722,7 +3264,7 @@
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="3"/>
@@ -2734,7 +3276,7 @@
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="3"/>
@@ -2746,7 +3288,7 @@
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="3"/>
@@ -2820,100 +3362,100 @@
         <v>11</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s" s="3">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s" s="3">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s" s="3">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s" s="3">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s" s="3">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s" s="3">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="M1" t="s" s="3">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="N1" t="s" s="3">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="O1" t="s" s="3">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s" s="3">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s" s="3">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="R1" t="s" s="3">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s" s="3">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s" s="3">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="U1" t="s" s="3">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="V1" t="s" s="3">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s" s="3">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="X1" t="s" s="3">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="Y1" t="s" s="3">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="Z1" t="s" s="3">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="AA1" t="s" s="3">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="AB1" t="s" s="3">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="AC1" t="s" s="3">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="AD1" t="s" s="3">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="AE1" t="s" s="3">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="AF1" t="s" s="3">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="AG1" t="s" s="3">
-        <v>116</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
@@ -2921,49 +3463,49 @@
         <v>45</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L2" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M2" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N2" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O2" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P2" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -2971,23 +3513,23 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W2" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z2" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA2" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB2" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="12"/>
@@ -3000,49 +3542,49 @@
         <v>45</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K3" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L3" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M3" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N3" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O3" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P3" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -3050,23 +3592,23 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W3" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z3" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA3" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB3" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="12"/>
@@ -3079,49 +3621,49 @@
         <v>45</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I4" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L4" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M4" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N4" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O4" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P4" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -3129,23 +3671,23 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W4" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z4" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA4" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB4" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="12"/>
@@ -3158,49 +3700,49 @@
         <v>45</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L5" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M5" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N5" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O5" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P5" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3208,23 +3750,23 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W5" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z5" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA5" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB5" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="12"/>
@@ -3237,49 +3779,49 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K6" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L6" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M6" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N6" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O6" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P6" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -3287,23 +3829,23 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W6" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z6" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA6" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB6" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="12"/>
@@ -3316,49 +3858,49 @@
         <v>45</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L7" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M7" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N7" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O7" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P7" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -3366,23 +3908,23 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W7" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z7" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA7" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB7" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="12"/>
@@ -3395,49 +3937,49 @@
         <v>45</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J8" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K8" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L8" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M8" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N8" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O8" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P8" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -3445,23 +3987,23 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W8" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z8" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA8" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB8" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="12"/>
@@ -3474,49 +4016,49 @@
         <v>45</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I9" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J9" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K9" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L9" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M9" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N9" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O9" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P9" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -3524,23 +4066,23 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W9" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z9" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA9" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB9" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="12"/>
@@ -3553,49 +4095,49 @@
         <v>45</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I10" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J10" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K10" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L10" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M10" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N10" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O10" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P10" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -3603,23 +4145,23 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W10" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z10" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA10" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB10" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="12"/>
@@ -3632,49 +4174,49 @@
         <v>45</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I11" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J11" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K11" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L11" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M11" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N11" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O11" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P11" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -3682,23 +4224,23 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W11" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z11" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA11" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB11" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="12"/>
@@ -3711,49 +4253,49 @@
         <v>45</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I12" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J12" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K12" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L12" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M12" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N12" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O12" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P12" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -3761,23 +4303,23 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W12" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z12" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA12" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB12" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="12"/>
@@ -3790,49 +4332,49 @@
         <v>45</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I13" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J13" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K13" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L13" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M13" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N13" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O13" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P13" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -3840,23 +4382,23 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W13" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z13" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA13" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB13" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="12"/>
@@ -3869,49 +4411,49 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I14" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J14" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K14" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L14" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M14" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N14" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O14" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P14" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -3919,23 +4461,23 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W14" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z14" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA14" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB14" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="12"/>
@@ -3948,49 +4490,49 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I15" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J15" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K15" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L15" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M15" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N15" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O15" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P15" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -3998,23 +4540,23 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W15" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z15" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA15" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB15" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="12"/>
@@ -4027,49 +4569,49 @@
         <v>45</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G16" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I16" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J16" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K16" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L16" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M16" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N16" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O16" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P16" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -4077,23 +4619,23 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W16" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z16" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA16" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB16" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="12"/>
@@ -4106,49 +4648,49 @@
         <v>45</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G17" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I17" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J17" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K17" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L17" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M17" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N17" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O17" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P17" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -4156,23 +4698,23 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W17" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z17" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA17" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB17" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="12"/>
@@ -4185,49 +4727,49 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H18" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I18" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J18" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K18" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L18" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M18" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N18" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O18" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P18" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -4235,23 +4777,23 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W18" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z18" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA18" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB18" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="12"/>
@@ -4264,49 +4806,49 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F19" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H19" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I19" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J19" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P19" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -4314,23 +4856,23 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W19" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z19" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA19" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB19" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="12"/>
@@ -4343,49 +4885,49 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H20" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I20" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J20" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O20" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P20" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -4393,23 +4935,23 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W20" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z20" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA20" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB20" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="12"/>
@@ -4422,49 +4964,49 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I21" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P21" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -4472,23 +5014,23 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W21" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z21" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA21" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB21" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="12"/>
@@ -4501,49 +5043,49 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I22" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P22" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4551,23 +5093,23 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W22" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z22" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA22" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB22" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="12"/>
@@ -4580,49 +5122,49 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H23" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I23" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P23" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -4630,23 +5172,23 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W23" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z23" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA23" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB23" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="12"/>
@@ -4659,49 +5201,49 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H24" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I24" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P24" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -4709,23 +5251,23 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W24" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA24" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB24" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="12"/>
@@ -4739,46 +5281,46 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="3">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H25" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I25" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -4786,23 +5328,23 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W25" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB25" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="12"/>
@@ -4815,49 +5357,49 @@
         <v>45</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I26" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P26" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -4865,23 +5407,23 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W26" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z26" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB26" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="12"/>
@@ -4894,49 +5436,49 @@
         <v>45</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I27" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N27" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P27" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -4944,23 +5486,23 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W27" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z27" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA27" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB27" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="12"/>
@@ -4973,49 +5515,49 @@
         <v>45</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F28" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I28" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N28" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P28" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -5023,23 +5565,23 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W28" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z28" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA28" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB28" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="12"/>
@@ -5052,49 +5594,49 @@
         <v>45</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F29" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G29" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I29" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P29" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -5102,23 +5644,23 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W29" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z29" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA29" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB29" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="12"/>
@@ -5131,49 +5673,49 @@
         <v>45</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H30" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I30" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N30" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O30" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P30" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -5181,23 +5723,23 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W30" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA30" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB30" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="12"/>
@@ -5210,49 +5752,49 @@
         <v>45</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I31" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N31" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P31" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -5260,23 +5802,23 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W31" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z31" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA31" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB31" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="12"/>
@@ -5289,49 +5831,49 @@
         <v>45</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I32" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N32" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O32" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P32" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -5339,23 +5881,23 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W32" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z32" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA32" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB32" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="12"/>
@@ -5368,49 +5910,49 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I33" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N33" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O33" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P33" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -5418,23 +5960,23 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W33" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z33" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA33" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB33" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="12"/>
@@ -5447,49 +5989,49 @@
         <v>45</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s" s="3">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G34" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H34" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I34" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K34" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L34" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N34" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O34" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P34" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -5497,23 +6039,23 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W34" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z34" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA34" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB34" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="12"/>
@@ -5526,49 +6068,49 @@
         <v>45</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s" s="3">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="E35" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I35" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J35" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K35" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L35" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N35" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O35" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P35" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5576,23 +6118,23 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W35" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z35" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA35" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB35" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="12"/>
@@ -5605,49 +6147,49 @@
         <v>45</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s" s="3">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="E36" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G36" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H36" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I36" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J36" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N36" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O36" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P36" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -5655,23 +6197,23 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W36" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z36" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA36" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB36" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="12"/>
@@ -5684,49 +6226,49 @@
         <v>45</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D37" t="s" s="3">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="E37" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G37" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I37" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J37" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K37" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M37" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N37" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O37" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P37" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -5734,23 +6276,23 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W37" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z37" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA37" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB37" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="12"/>
@@ -5763,49 +6305,49 @@
         <v>45</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="E38" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G38" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I38" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J38" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N38" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O38" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P38" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -5813,23 +6355,23 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W38" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z38" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA38" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB38" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="12"/>
@@ -5842,49 +6384,49 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="3">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G39" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I39" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J39" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N39" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O39" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P39" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -5892,23 +6434,23 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W39" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z39" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA39" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB39" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="12"/>
@@ -5921,49 +6463,49 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="3">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s" s="3">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F40" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H40" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I40" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J40" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K40" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N40" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O40" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P40" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -5971,23 +6513,23 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W40" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z40" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA40" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB40" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="12"/>
@@ -6000,49 +6542,49 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D41" t="s" s="3">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G41" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I41" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J41" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K41" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L41" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N41" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O41" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P41" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -6050,23 +6592,23 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W41" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z41" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA41" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB41" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="12"/>
@@ -6079,49 +6621,49 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D42" t="s" s="3">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="E42" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G42" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H42" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I42" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J42" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K42" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N42" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O42" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P42" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -6129,23 +6671,23 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W42" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z42" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA42" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB42" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="12"/>
@@ -6158,49 +6700,49 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="3">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D43" t="s" s="3">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="E43" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H43" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I43" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J43" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K43" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L43" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M43" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N43" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O43" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P43" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -6208,23 +6750,23 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W43" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z43" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA43" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB43" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="12"/>
@@ -6237,49 +6779,49 @@
         <v>45</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s" s="3">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="E44" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F44" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G44" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H44" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I44" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J44" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L44" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N44" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O44" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P44" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -6287,23 +6829,23 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W44" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z44" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA44" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB44" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="12"/>
@@ -6316,49 +6858,49 @@
         <v>45</v>
       </c>
       <c r="B45" t="s" s="3">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s" s="3">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="E45" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I45" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J45" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K45" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N45" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O45" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P45" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -6366,23 +6908,23 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W45" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z45" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA45" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB45" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="12"/>
@@ -6395,49 +6937,49 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s" s="3">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="E46" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G46" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I46" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J46" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K46" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L46" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N46" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O46" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P46" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -6445,23 +6987,23 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W46" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z46" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA46" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB46" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" s="12"/>
@@ -6474,49 +7016,49 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="3">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s" s="3">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="E47" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G47" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I47" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J47" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N47" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O47" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P47" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -6524,23 +7066,23 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W47" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z47" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA47" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB47" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="12"/>
@@ -6553,49 +7095,49 @@
         <v>45</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D48" t="s" s="3">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="E48" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G48" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I48" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J48" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N48" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O48" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P48" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -6603,23 +7145,23 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W48" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z48" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA48" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB48" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="12"/>
@@ -6632,49 +7174,49 @@
         <v>45</v>
       </c>
       <c r="B49" t="s" s="3">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s" s="3">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="E49" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G49" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I49" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J49" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K49" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L49" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N49" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O49" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P49" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -6682,23 +7224,23 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W49" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z49" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA49" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB49" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="12"/>
@@ -6711,49 +7253,49 @@
         <v>45</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D50" t="s" s="3">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="E50" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G50" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I50" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J50" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K50" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L50" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N50" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O50" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P50" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -6761,23 +7303,23 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W50" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z50" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA50" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB50" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="12"/>
@@ -6790,49 +7332,49 @@
         <v>45</v>
       </c>
       <c r="B51" t="s" s="3">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s" s="3">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="E51" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F51" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G51" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H51" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I51" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J51" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K51" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L51" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N51" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O51" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P51" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
@@ -6840,23 +7382,23 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W51" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z51" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA51" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB51" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="12"/>
@@ -6869,49 +7411,49 @@
         <v>45</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s" s="3">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="E52" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G52" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H52" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I52" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J52" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K52" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L52" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N52" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O52" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P52" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -6919,23 +7461,23 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W52" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z52" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA52" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB52" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="12"/>
@@ -6948,49 +7490,49 @@
         <v>45</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="D53" t="s" s="3">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="E53" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G53" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H53" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I53" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J53" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K53" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L53" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N53" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O53" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P53" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -6998,23 +7540,23 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W53" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z53" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA53" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB53" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="12"/>
@@ -7028,46 +7570,46 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="3">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="D54" t="s" s="3">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="E54" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G54" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I54" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J54" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K54" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M54" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N54" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O54" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P54" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -7075,23 +7617,23 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W54" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z54" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA54" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB54" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="12"/>
@@ -7104,49 +7646,49 @@
         <v>45</v>
       </c>
       <c r="B55" t="s" s="3">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s" s="3">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="E55" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G55" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I55" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J55" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N55" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O55" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P55" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -7154,23 +7696,23 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W55" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z55" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA55" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB55" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="12"/>
@@ -7184,46 +7726,46 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="3">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s" s="3">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I56" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J56" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K56" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L56" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M56" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N56" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O56" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P56" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -7231,23 +7773,23 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W56" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z56" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA56" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB56" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="12"/>
@@ -7260,49 +7802,49 @@
         <v>45</v>
       </c>
       <c r="B57" t="s" s="3">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="D57" t="s" s="3">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="E57" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G57" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I57" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J57" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K57" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L57" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N57" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O57" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P57" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -7310,23 +7852,23 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W57" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z57" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA57" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB57" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="12"/>
@@ -7340,46 +7882,46 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="3">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s" s="3">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="E58" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F58" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G58" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I58" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J58" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K58" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M58" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N58" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O58" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P58" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -7387,23 +7929,23 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W58" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z58" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA58" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB58" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="12"/>
@@ -7416,49 +7958,49 @@
         <v>45</v>
       </c>
       <c r="B59" t="s" s="3">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s" s="3">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="E59" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F59" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G59" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H59" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I59" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J59" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K59" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N59" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O59" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P59" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -7466,23 +8008,23 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W59" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z59" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA59" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB59" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="12"/>
@@ -7496,46 +8038,46 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="3">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="D60" t="s" s="3">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="E60" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G60" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H60" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I60" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J60" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K60" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L60" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N60" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O60" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P60" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -7543,23 +8085,23 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W60" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z60" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA60" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB60" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="12"/>
@@ -7572,49 +8114,49 @@
         <v>45</v>
       </c>
       <c r="B61" t="s" s="3">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s" s="3">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="E61" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G61" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I61" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J61" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K61" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L61" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M61" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N61" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O61" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P61" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -7622,23 +8164,23 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W61" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z61" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA61" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB61" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="12"/>
@@ -7652,46 +8194,46 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="3">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="D62" t="s" s="3">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="E62" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F62" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G62" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I62" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J62" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K62" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N62" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O62" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P62" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -7699,23 +8241,23 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W62" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z62" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA62" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB62" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="12"/>
@@ -7728,49 +8270,49 @@
         <v>45</v>
       </c>
       <c r="B63" t="s" s="3">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s" s="3">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="E63" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G63" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H63" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I63" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J63" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K63" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L63" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M63" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N63" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O63" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P63" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
@@ -7778,23 +8320,23 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W63" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z63" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA63" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB63" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="12"/>
@@ -7807,49 +8349,49 @@
         <v>45</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s" s="3">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="E64" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F64" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G64" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H64" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I64" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J64" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K64" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L64" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N64" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O64" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P64" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -7857,23 +8399,23 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W64" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z64" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA64" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB64" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="12"/>
@@ -7886,49 +8428,49 @@
         <v>45</v>
       </c>
       <c r="B65" t="s" s="3">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D65" t="s" s="3">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F65" t="s" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="G65" t="s" s="3">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H65" t="s" s="3">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="I65" t="s" s="3">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J65" t="s" s="3">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K65" t="s" s="3">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="L65" t="s" s="3">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M65" t="s" s="3">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N65" t="s" s="3">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="O65" t="s" s="3">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="P65" t="s" s="3">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -7936,23 +8478,23 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" t="s" s="3">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="W65" t="s" s="3">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" t="s" s="3">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="Z65" t="s" s="3">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="AA65" t="s" s="3">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="AB65" t="s" s="3">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="12"/>
@@ -7966,17 +8508,17 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D66" t="s" s="3">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="E66" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" t="s" s="3">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -8011,17 +8553,17 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D67" t="s" s="3">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="E67" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" t="s" s="3">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -8056,17 +8598,17 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D68" t="s" s="3">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="E68" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" t="s" s="3">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -8101,17 +8643,17 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D69" t="s" s="3">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="E69" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" t="s" s="3">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -8146,17 +8688,17 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="3">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D70" t="s" s="3">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="E70" t="s" s="3">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" t="s" s="3">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -8190,20 +8732,20 @@
         <v>45</v>
       </c>
       <c r="B71" t="s" s="3">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="D71" t="s" s="3">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s" s="3">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" t="s" s="3">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
